--- a/Resources/TestData/TestData.xlsx
+++ b/Resources/TestData/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="15660" windowHeight="6495"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="15765" windowHeight="6495"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -124,7 +124,7 @@
     <t>Blue</t>
   </si>
   <si>
-    <t>abc556</t>
+    <t>abc5560</t>
   </si>
 </sst>
 </file>
@@ -478,7 +478,7 @@
   <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Resources/TestData/TestData.xlsx
+++ b/Resources/TestData/TestData.xlsx
@@ -124,7 +124,7 @@
     <t>Blue</t>
   </si>
   <si>
-    <t>abc5560</t>
+    <t>abc558198</t>
   </si>
 </sst>
 </file>
@@ -478,7 +478,7 @@
   <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
